--- a/medicine/Sexualité et sexologie/Les_Exploits_d'un_jeune_Don_Juan/Les_Exploits_d'un_jeune_Don_Juan.xlsx
+++ b/medicine/Sexualité et sexologie/Les_Exploits_d'un_jeune_Don_Juan/Les_Exploits_d'un_jeune_Don_Juan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Exploits_d%27un_jeune_Don_Juan</t>
+          <t>Les_Exploits_d'un_jeune_Don_Juan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Exploits d'un jeune Don Juan est un roman érotique écrit par Guillaume Apollinaire et publié en 1911 sous couverture muette. Un tirage limité édité par La Couronne des amours en 1926 est enrichi de douze lithographies de Gaston-Louis Roux. C'est un roman d'initiation amoureuse et sexuelle.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Exploits_d%27un_jeune_Don_Juan</t>
+          <t>Les_Exploits_d'un_jeune_Don_Juan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Roger, un jeune homme de bonne famille, part accompagné de sa mère, de sa tante et de sa sœur, dans la propriété familiale située à la campagne. Là-bas, il va découvrir, à travers de nombreuses expériences, les plaisirs de la  sexualité.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Exploits_d%27un_jeune_Don_Juan</t>
+          <t>Les_Exploits_d'un_jeune_Don_Juan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Au cinéma
-Une adaptation cinématographique du roman a été réalisée en 1987 par Gianfranco Mingozzi[1]. Cependant, Les Exploits d'un jeune Don Juan (L'iniziazione en italien) n'est qu'une interprétation libre. En effet, de nombreux passages se sont avérés beaucoup trop politiquement incorrects ou amoraux (scènes d'inceste) et n'ont donc pas été traités.
-En bande dessinée
-Le roman a été adapté en bande dessinée en  2010 par Georges Pichard (Glénat)[2].
+          <t>Au cinéma</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une adaptation cinématographique du roman a été réalisée en 1987 par Gianfranco Mingozzi. Cependant, Les Exploits d'un jeune Don Juan (L'iniziazione en italien) n'est qu'une interprétation libre. En effet, de nombreux passages se sont avérés beaucoup trop politiquement incorrects ou amoraux (scènes d'inceste) et n'ont donc pas été traités.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Les_Exploits_d'un_jeune_Don_Juan</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Exploits_d%27un_jeune_Don_Juan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En bande dessinée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le roman a été adapté en bande dessinée en  2010 par Georges Pichard (Glénat).
 </t>
         </is>
       </c>
